--- a/sql/master_table_work.xlsx
+++ b/sql/master_table_work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yota-\Desktop\study\data\EDINET\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ADBA5C-31F2-42DF-A558-6D9C0B524CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C68E9-08F8-4FE0-8EE8-D43CC60C4FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="work" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6351" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6352" uniqueCount="866">
   <si>
     <t>府令コード</t>
     <rPh sb="0" eb="1">
@@ -2700,12 +2700,20 @@
     <t>SQL_TEXT</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>コード名称</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://note.com/piqcy/n/n8dd5178852de</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2732,6 +2740,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2769,10 +2785,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2781,8 +2798,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3063,10 +3082,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN414"/>
   <sheetViews>
-    <sheetView zoomScale="61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="61" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3133,7 +3152,7 @@
         <v>797</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>798</v>
+        <v>864</v>
       </c>
       <c r="AB1" s="6" t="s">
         <v>835</v>
@@ -3800,6 +3819,9 @@
       <c r="L10" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="R10" s="8" t="s">
+        <v>865</v>
+      </c>
       <c r="AB10" s="6" t="str">
         <f t="shared" si="2"/>
         <v>010</v>
@@ -29977,8 +29999,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="R10" r:id="rId1" xr:uid="{CC4E8FB8-43FE-4408-88F8-D09B99E6D1B5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29986,7 +30011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BB8572-BF34-4B45-94D9-B028462D55B8}">
   <dimension ref="A1:K414"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+    <sheetView zoomScale="72" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J382" sqref="J382"/>
     </sheetView>
